--- a/generated_docs/WR_89713058_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89713058_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3421.63</v>
+        <v>18178.79</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>259.74</v>
+        <v>1038.96</v>
       </c>
     </row>
     <row r="17">
@@ -1183,16 +1183,1165 @@
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>3421.629999999999</v>
+        <v>4200.849999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>217.53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>470.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>470.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8D-60S</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>480</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>446.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>285.45</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42W-GH-C</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Wire mt,Guy Hook,Corr.</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>426</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>996.84</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>115</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>269.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>789</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>1846.26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>110.36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>124.02</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>100.44</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>433</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>1013.22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-40-S-X</t>
+        </is>
+      </c>
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,4/0,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>539</v>
+      </c>
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>1261.26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-50-S-X</t>
+        </is>
+      </c>
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,500,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>231</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>540.54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>618</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>1446.12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>205.92</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>858.75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H66" s="16" t="n">
+        <v>13977.94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A66:G66"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>

--- a/generated_docs/WR_89713058_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89713058_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I66"/>
+  <dimension ref="A2:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>18178.79</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>1038.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,18 +799,18 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>401.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,31 +820,31 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>918</v>
+        <v>24</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>853.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-CUH-15</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,31 +854,31 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>55.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,31 +888,31 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1</v>
+        <v>918</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -922,31 +922,31 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>424</v>
+        <v>24</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>394.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,31 +956,31 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,32 +999,32 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>93.23999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>EQL-3-4-C-50-S-X</t>
+          <t>ARM-8S-60S</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>EQL,3 Ph,#4,CU Sol,500,CU Str,Xfr</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,62 +1037,62 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,32 +1101,32 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,28 +1139,28 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>187.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 18</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,81 +1169,192 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H29" s="16" t="n">
-        <v>4200.849999999999</v>
+      <c r="A29" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-CUH-15</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+        </is>
+      </c>
+      <c r="E29" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" s="13" t="inlineStr"/>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>EQL-3-4-C-50-S-X</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>EQL,3 Ph,#4,CU Sol,500,CU Str,Xfr</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr"/>
+      <c r="H31" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/30/2025)</t>
-        </is>
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-IL-C</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78"WireMt,Insltr&amp;Link Adder,Corr</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G33" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H33" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 27</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1253,31 +1364,31 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1287,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1296,22 +1407,22 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1321,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1330,22 +1441,22 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1355,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1368,18 +1479,18 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1389,7 +1500,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1398,22 +1509,22 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>470.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1423,7 +1534,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1436,916 +1547,1961 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
+      <c r="A40" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H40" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D44" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B40" s="9" t="inlineStr">
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C46" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13" t="inlineStr"/>
+      <c r="H46" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10" t="inlineStr"/>
+      <c r="H47" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13" t="inlineStr"/>
+      <c r="H48" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-IL-C</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78"WireMt,Insltr&amp;Link Adder,Corr</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C52" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="13" t="inlineStr"/>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr"/>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>470.85</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B41" s="12" t="inlineStr">
+      <c r="B56" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>POL-45-2</t>
         </is>
       </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>Pole,45ft,Class 2</t>
         </is>
       </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B42" s="9" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Point 01</t>
         </is>
       </c>
-      <c r="B43" s="12" t="inlineStr">
+      <c r="B59" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="inlineStr">
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>TIE-6-CUH-F</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B62" s="12" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="C62" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D44" s="9" t="inlineStr">
+      <c r="D62" s="12" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="n">
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G44" s="10" t="inlineStr"/>
-      <c r="H44" s="11" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B45" s="12" t="inlineStr">
+      <c r="B63" s="9" t="inlineStr">
         <is>
           <t>ARM-8D-60S</t>
         </is>
       </c>
-      <c r="C45" s="12" t="inlineStr">
+      <c r="C63" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D45" s="12" t="inlineStr">
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>ARM,8ft Double Wood,60in Sgl.Wd</t>
         </is>
       </c>
-      <c r="E45" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="n">
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G45" s="13" t="inlineStr"/>
-      <c r="H45" s="14" t="n">
-        <v>73.73</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B64" s="12" t="inlineStr">
         <is>
           <t>ARM-8S-60S</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
+      <c r="C64" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D46" s="9" t="inlineStr">
+      <c r="D64" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Single Wood,60in Sgl.Wd</t>
         </is>
       </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>ARM-BR-60S</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>ARM,Brace only Wood,60in Sgl.Wd</t>
+        </is>
+      </c>
+      <c r="E65" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C47" s="12" t="inlineStr">
+      <c r="C66" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D47" s="12" t="inlineStr">
+      <c r="D66" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E47" s="12" t="inlineStr">
+      <c r="E66" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F47" s="13" t="n">
+      <c r="F66" s="13" t="n">
         <v>480</v>
       </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>446.4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
+      <c r="C67" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D48" s="9" t="inlineStr">
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>285.45</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-42W-GH-C</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
+      <c r="C69" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D49" s="12" t="inlineStr">
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Wire mt,Guy Hook,Corr.</t>
         </is>
       </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
+      <c r="C72" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="D72" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>155.4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B51" s="12" t="inlineStr">
+      <c r="B73" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
+      <c r="C73" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D51" s="12" t="inlineStr">
+      <c r="D73" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>155.4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="inlineStr">
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>TIE-6-CUH-F</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>TIE,6 AWG,CU Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B78" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="inlineStr">
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E52" s="9" t="inlineStr">
+      <c r="E78" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F52" s="10" t="n">
+      <c r="F78" s="13" t="n">
         <v>426</v>
       </c>
-      <c r="G52" s="10" t="inlineStr"/>
-      <c r="H52" s="11" t="n">
-        <v>996.84</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="inlineStr">
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B53" s="12" t="inlineStr">
+      <c r="B79" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B</t>
         </is>
       </c>
-      <c r="C53" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="12" t="inlineStr">
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
-      <c r="E53" s="12" t="inlineStr">
+      <c r="E79" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F53" s="13" t="n">
+      <c r="F79" s="10" t="n">
         <v>115</v>
       </c>
-      <c r="G53" s="13" t="inlineStr"/>
-      <c r="H53" s="14" t="n">
-        <v>269.1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="9" t="inlineStr">
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B54" s="9" t="inlineStr">
+      <c r="B80" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C54" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D54" s="9" t="inlineStr">
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E54" s="9" t="inlineStr">
+      <c r="E80" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="F80" s="13" t="n">
         <v>789</v>
       </c>
-      <c r="G54" s="10" t="inlineStr"/>
-      <c r="H54" s="11" t="n">
-        <v>1846.26</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B55" s="12" t="inlineStr">
+      <c r="B81" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C55" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D55" s="12" t="inlineStr">
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E55" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="13" t="n">
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="14" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="B83" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E56" s="9" t="inlineStr">
+      <c r="E83" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="F83" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>124.02</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B57" s="12" t="inlineStr">
+      <c r="B84" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C57" s="12" t="inlineStr">
+      <c r="C84" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D57" s="12" t="inlineStr">
+      <c r="D84" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E57" s="12" t="inlineStr">
+      <c r="E84" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F57" s="13" t="n">
+      <c r="F84" s="13" t="n">
         <v>108</v>
       </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>100.44</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B58" s="9" t="inlineStr">
+      <c r="B85" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E58" s="9" t="inlineStr">
+      <c r="E85" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F58" s="10" t="n">
+      <c r="F85" s="10" t="n">
         <v>433</v>
       </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>1013.22</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B59" s="12" t="inlineStr">
+      <c r="B86" s="12" t="inlineStr">
         <is>
           <t>EQL-3-4-C-40-S-X</t>
         </is>
       </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
         <is>
           <t>EQL,3 Ph,#4,CU Sol,4/0,CU Str,Xfr</t>
         </is>
       </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="9" t="inlineStr">
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D87" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E87" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10" t="inlineStr"/>
+      <c r="H87" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-CUH-15</t>
+        </is>
+      </c>
+      <c r="C88" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+        </is>
+      </c>
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" s="13" t="inlineStr"/>
+      <c r="H88" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B60" s="9" t="inlineStr">
+      <c r="B89" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C60" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="9" t="inlineStr">
+      <c r="C89" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D89" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E60" s="9" t="inlineStr">
+      <c r="E89" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F60" s="10" t="n">
+      <c r="F89" s="10" t="n">
         <v>539</v>
       </c>
-      <c r="G60" s="10" t="inlineStr"/>
-      <c r="H60" s="11" t="n">
-        <v>1261.26</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="12" t="inlineStr">
+      <c r="G89" s="10" t="inlineStr"/>
+      <c r="H89" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B61" s="12" t="inlineStr">
+      <c r="B90" s="12" t="inlineStr">
         <is>
           <t>EQL-3-4-C-50-S-X</t>
         </is>
       </c>
-      <c r="C61" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="12" t="inlineStr">
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
         <is>
           <t>EQL,3 Ph,#4,CU Sol,500,CU Str,Xfr</t>
         </is>
       </c>
-      <c r="E61" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="13" t="n">
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G61" s="13" t="inlineStr"/>
-      <c r="H61" s="14" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9" t="inlineStr">
+      <c r="G90" s="13" t="inlineStr"/>
+      <c r="H90" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-CUH-15</t>
+        </is>
+      </c>
+      <c r="C92" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,CU Hand Tie,15kV (F Neck)</t>
+        </is>
+      </c>
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G92" s="13" t="inlineStr"/>
+      <c r="H92" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B62" s="9" t="inlineStr">
+      <c r="B93" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C62" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="9" t="inlineStr">
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E62" s="9" t="inlineStr">
+      <c r="E93" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F62" s="10" t="n">
+      <c r="F93" s="10" t="n">
         <v>231</v>
       </c>
-      <c r="G62" s="10" t="inlineStr"/>
-      <c r="H62" s="11" t="n">
-        <v>540.54</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="12" t="inlineStr">
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C94" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B63" s="12" t="inlineStr">
+      <c r="B95" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C63" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D63" s="12" t="inlineStr">
+      <c r="C95" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E63" s="12" t="inlineStr">
+      <c r="E95" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F63" s="13" t="n">
+      <c r="F95" s="10" t="n">
         <v>618</v>
       </c>
-      <c r="G63" s="13" t="inlineStr"/>
-      <c r="H63" s="14" t="n">
-        <v>1446.12</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="inlineStr">
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C96" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E96" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G96" s="13" t="inlineStr"/>
+      <c r="H96" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B64" s="9" t="inlineStr">
+      <c r="B97" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C64" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="inlineStr">
+      <c r="C97" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E64" s="9" t="inlineStr">
+      <c r="E97" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F97" s="10" t="n">
         <v>88</v>
       </c>
-      <c r="G64" s="10" t="inlineStr"/>
-      <c r="H64" s="11" t="n">
-        <v>205.92</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="inlineStr">
+      <c r="G97" s="10" t="inlineStr"/>
+      <c r="H97" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C98" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G98" s="13" t="inlineStr"/>
+      <c r="H98" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
         <is>
           <t>Point 27</t>
         </is>
       </c>
-      <c r="B65" s="12" t="inlineStr">
+      <c r="B99" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C65" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D65" s="12" t="inlineStr">
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E65" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="13" t="n">
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G65" s="13" t="inlineStr"/>
-      <c r="H65" s="14" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="15" t="inlineStr">
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H66" s="16" t="n">
-        <v>13977.94</v>
+      <c r="H100" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A66:G66"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A100:G100"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A29:G29"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
